--- a/ResultsTransformation/Map/Villes/jadielle.xlsx
+++ b/ResultsTransformation/Map/Villes/jadielle.xlsx
@@ -424,1937 +424,1937 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2364,296 +2364,296 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2723,791 +2723,791 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="J17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="Y18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="X19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="AI20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -3517,666 +3517,666 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4226,79 +4226,79 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4333,69 +4333,69 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4430,69 +4430,69 @@
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -4527,69 +4527,69 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4754,1485 +4754,1485 @@
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
